--- a/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
+++ b/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1335">
   <si>
     <t>Sex</t>
   </si>
@@ -3206,6 +3206,15 @@
     <t>2:38.18</t>
   </si>
   <si>
+    <t>3:13.02</t>
+  </si>
+  <si>
+    <t>12-10-2017</t>
+  </si>
+  <si>
+    <t>Minnesota Masters Short Course Meters State</t>
+  </si>
+  <si>
     <t>1:18.44</t>
   </si>
   <si>
@@ -3245,9 +3254,6 @@
     <t>1:23.53</t>
   </si>
   <si>
-    <t>1:30.30</t>
-  </si>
-  <si>
     <t>3:10.64</t>
   </si>
   <si>
@@ -3710,12 +3716,18 @@
     <t>388P-03GXT</t>
   </si>
   <si>
+    <t xml:space="preserve"> James E Elder</t>
+  </si>
+  <si>
+    <t>M74</t>
+  </si>
+  <si>
+    <t>3887-03KTT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Richard Burns</t>
   </si>
   <si>
-    <t>M74</t>
-  </si>
-  <si>
     <t>387J-BURNS</t>
   </si>
   <si>
@@ -3755,6 +3767,9 @@
     <t>1:07.31</t>
   </si>
   <si>
+    <t>1:09.98</t>
+  </si>
+  <si>
     <t>1:46.40</t>
   </si>
   <si>
@@ -3815,6 +3830,24 @@
     <t>2:45.94</t>
   </si>
   <si>
+    <t>1:00.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arthur M Noxon</t>
+  </si>
+  <si>
+    <t>FIG</t>
+  </si>
+  <si>
+    <t>388V-0ATNA</t>
+  </si>
+  <si>
+    <t>12-09-2017</t>
+  </si>
+  <si>
+    <t>9th Annual Bend All-Around Meet 2017</t>
+  </si>
+  <si>
     <t>1:20.95</t>
   </si>
   <si>
@@ -3828,6 +3861,9 @@
   </si>
   <si>
     <t>1:17.78</t>
+  </si>
+  <si>
+    <t>1:22.85</t>
   </si>
   <si>
     <t>2:04.08</t>
@@ -4347,7 +4383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L850"/>
+  <dimension ref="A1:L858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -29071,34 +29107,34 @@
         <v>349</v>
       </c>
       <c r="C651" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D651" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E651" s="2">
-        <v>1</v>
-      </c>
-      <c r="F651" s="2">
-        <v>35.51</v>
+        <v>3</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>1063</v>
       </c>
       <c r="G651" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="H651" s="1" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>848</v>
+        <v>81</v>
       </c>
       <c r="J651" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="K651" t="s">
-        <v>33</v>
+        <v>1064</v>
       </c>
       <c r="L651" t="s">
-        <v>26</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -29115,28 +29151,28 @@
         <v>43</v>
       </c>
       <c r="E652" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F652" s="2">
-        <v>38.23</v>
+        <v>35.51</v>
       </c>
       <c r="G652" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="H652" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>275</v>
+        <v>848</v>
       </c>
       <c r="J652" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="K652" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L652" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="653" spans="1:12">
@@ -29153,22 +29189,22 @@
         <v>43</v>
       </c>
       <c r="E653" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F653" s="2">
-        <v>39.67</v>
+        <v>38.23</v>
       </c>
       <c r="G653" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="H653" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>1009</v>
+        <v>275</v>
       </c>
       <c r="J653" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="K653" t="s">
         <v>19</v>
@@ -29191,22 +29227,22 @@
         <v>43</v>
       </c>
       <c r="E654" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F654" s="2">
-        <v>40.51</v>
+        <v>39.67</v>
       </c>
       <c r="G654" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H654" s="1" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>147</v>
+        <v>1009</v>
       </c>
       <c r="J654" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="K654" t="s">
         <v>19</v>
@@ -29229,22 +29265,22 @@
         <v>43</v>
       </c>
       <c r="E655" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F655" s="2">
-        <v>40.85</v>
+        <v>40.51</v>
       </c>
       <c r="G655" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="H655" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="J655" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="K655" t="s">
         <v>19</v>
@@ -29261,34 +29297,34 @@
         <v>349</v>
       </c>
       <c r="C656" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D656" t="s">
         <v>43</v>
       </c>
       <c r="E656" s="2">
-        <v>1</v>
-      </c>
-      <c r="F656" s="2" t="s">
-        <v>1063</v>
+        <v>5</v>
+      </c>
+      <c r="F656" s="2">
+        <v>40.85</v>
       </c>
       <c r="G656" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="H656" s="1" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>848</v>
+        <v>95</v>
       </c>
       <c r="J656" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="K656" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L656" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -29299,16 +29335,16 @@
         <v>349</v>
       </c>
       <c r="C657" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D657" t="s">
         <v>43</v>
       </c>
       <c r="E657" s="2">
-        <v>2</v>
-      </c>
-      <c r="F657" s="2" t="s">
-        <v>1064</v>
+        <v>6</v>
+      </c>
+      <c r="F657" s="2">
+        <v>46.42</v>
       </c>
       <c r="G657" t="s">
         <v>1016</v>
@@ -29323,10 +29359,10 @@
         <v>1017</v>
       </c>
       <c r="K657" t="s">
-        <v>280</v>
+        <v>1064</v>
       </c>
       <c r="L657" t="s">
-        <v>281</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -29337,7 +29373,7 @@
         <v>349</v>
       </c>
       <c r="C658" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D658" t="s">
         <v>43</v>
@@ -29346,25 +29382,25 @@
         <v>1</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="G658" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="H658" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>109</v>
+        <v>848</v>
       </c>
       <c r="J658" t="s">
-        <v>1040</v>
+        <v>1006</v>
       </c>
       <c r="K658" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L658" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -29375,7 +29411,7 @@
         <v>349</v>
       </c>
       <c r="C659" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D659" t="s">
         <v>43</v>
@@ -29384,25 +29420,25 @@
         <v>2</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G659" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="H659" s="1" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="J659" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="K659" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="L659" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
     </row>
     <row r="660" spans="1:12">
@@ -29419,22 +29455,22 @@
         <v>43</v>
       </c>
       <c r="E660" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G660" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="H660" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J660" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="K660" t="s">
         <v>19</v>
@@ -29457,28 +29493,28 @@
         <v>43</v>
       </c>
       <c r="E661" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G661" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="H661" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="J661" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="K661" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="L661" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -29489,28 +29525,28 @@
         <v>349</v>
       </c>
       <c r="C662" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D662" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E662" s="2">
-        <v>1</v>
-      </c>
-      <c r="F662" s="2">
-        <v>31.04</v>
+        <v>3</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>1070</v>
       </c>
       <c r="G662" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="H662" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J662" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="K662" t="s">
         <v>19</v>
@@ -29527,34 +29563,34 @@
         <v>349</v>
       </c>
       <c r="C663" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D663" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E663" s="2">
-        <v>2</v>
-      </c>
-      <c r="F663" s="2">
-        <v>31.34</v>
+        <v>4</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>1071</v>
       </c>
       <c r="G663" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="H663" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="I663" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="J663" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="K663" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="L663" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -29571,22 +29607,22 @@
         <v>47</v>
       </c>
       <c r="E664" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F664" s="2">
-        <v>33.92</v>
+        <v>31.04</v>
       </c>
       <c r="G664" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H664" s="1" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="J664" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="K664" t="s">
         <v>19</v>
@@ -29603,34 +29639,34 @@
         <v>349</v>
       </c>
       <c r="C665" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D665" t="s">
         <v>47</v>
       </c>
       <c r="E665" s="2">
-        <v>1</v>
-      </c>
-      <c r="F665" s="2" t="s">
-        <v>1069</v>
+        <v>2</v>
+      </c>
+      <c r="F665" s="2">
+        <v>31.34</v>
       </c>
       <c r="G665" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="H665" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="I665" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="J665" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="K665" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L665" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="666" spans="1:12">
@@ -29641,28 +29677,28 @@
         <v>349</v>
       </c>
       <c r="C666" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D666" t="s">
         <v>47</v>
       </c>
       <c r="E666" s="2">
-        <v>1</v>
-      </c>
-      <c r="F666" s="2" t="s">
-        <v>1070</v>
+        <v>3</v>
+      </c>
+      <c r="F666" s="2">
+        <v>33.92</v>
       </c>
       <c r="G666" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H666" s="1" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="I666" s="1" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="J666" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="K666" t="s">
         <v>19</v>
@@ -29679,16 +29715,16 @@
         <v>349</v>
       </c>
       <c r="C667" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D667" t="s">
         <v>47</v>
       </c>
       <c r="E667" s="2">
-        <v>2</v>
-      </c>
-      <c r="F667" s="2" t="s">
-        <v>1071</v>
+        <v>4</v>
+      </c>
+      <c r="F667" s="2">
+        <v>35.88</v>
       </c>
       <c r="G667" t="s">
         <v>1016</v>
@@ -29703,10 +29739,10 @@
         <v>1017</v>
       </c>
       <c r="K667" t="s">
-        <v>25</v>
+        <v>1064</v>
       </c>
       <c r="L667" t="s">
-        <v>26</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="668" spans="1:12">
@@ -29720,7 +29756,7 @@
         <v>100</v>
       </c>
       <c r="D668" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E668" s="2">
         <v>1</v>
@@ -29729,22 +29765,22 @@
         <v>1072</v>
       </c>
       <c r="G668" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="H668" s="1" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="I668" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J668" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="K668" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L668" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -29755,28 +29791,28 @@
         <v>349</v>
       </c>
       <c r="C669" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D669" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E669" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="G669" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H669" s="1" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="I669" s="1" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="J669" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="K669" t="s">
         <v>19</v>
@@ -29793,34 +29829,34 @@
         <v>349</v>
       </c>
       <c r="C670" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D670" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E670" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>1074</v>
       </c>
       <c r="G670" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="H670" s="1" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="I670" s="1" t="s">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="J670" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="K670" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L670" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="671" spans="1:12">
@@ -29837,22 +29873,22 @@
         <v>50</v>
       </c>
       <c r="E671" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="G671" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="H671" s="1" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="I671" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J671" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="K671" t="s">
         <v>19</v>
@@ -29875,28 +29911,28 @@
         <v>50</v>
       </c>
       <c r="E672" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>1076</v>
       </c>
       <c r="G672" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="H672" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="I672" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="J672" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="K672" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="L672" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
     </row>
     <row r="673" spans="1:12">
@@ -29907,34 +29943,34 @@
         <v>349</v>
       </c>
       <c r="C673" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D673" t="s">
         <v>50</v>
       </c>
       <c r="E673" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>1077</v>
       </c>
       <c r="G673" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="H673" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="I673" s="1" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="J673" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="K673" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="L673" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="674" spans="1:12">
@@ -29945,28 +29981,28 @@
         <v>349</v>
       </c>
       <c r="C674" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D674" t="s">
         <v>50</v>
       </c>
       <c r="E674" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>1078</v>
       </c>
       <c r="G674" t="s">
-        <v>1039</v>
+        <v>1011</v>
       </c>
       <c r="H674" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="I674" s="1" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="J674" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="K674" t="s">
         <v>19</v>
@@ -29983,34 +30019,34 @@
         <v>349</v>
       </c>
       <c r="C675" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D675" t="s">
         <v>50</v>
       </c>
       <c r="E675" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="G675" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="H675" s="1" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J675" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="K675" t="s">
-        <v>19</v>
+        <v>1064</v>
       </c>
       <c r="L675" t="s">
-        <v>20</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="676" spans="1:12">
@@ -30021,16 +30057,16 @@
         <v>349</v>
       </c>
       <c r="C676" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D676" t="s">
         <v>50</v>
       </c>
       <c r="E676" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G676" t="s">
         <v>1016</v>
@@ -30045,10 +30081,10 @@
         <v>1017</v>
       </c>
       <c r="K676" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="L676" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="677" spans="1:12">
@@ -30056,37 +30092,37 @@
         <v>630</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="C677" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D677" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E677" s="2">
         <v>1</v>
       </c>
-      <c r="F677" s="2">
-        <v>27.57</v>
+      <c r="F677" s="2" t="s">
+        <v>1080</v>
       </c>
       <c r="G677" t="s">
-        <v>1081</v>
+        <v>1039</v>
       </c>
       <c r="H677" s="1" t="s">
-        <v>1082</v>
+        <v>1019</v>
       </c>
       <c r="I677" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J677" t="s">
-        <v>1083</v>
+        <v>1040</v>
       </c>
       <c r="K677" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L677" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -30094,31 +30130,31 @@
         <v>630</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="C678" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D678" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E678" s="2">
         <v>2</v>
       </c>
-      <c r="F678" s="2">
-        <v>28.25</v>
+      <c r="F678" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="G678" t="s">
-        <v>1084</v>
+        <v>1001</v>
       </c>
       <c r="H678" s="1" t="s">
-        <v>1082</v>
+        <v>1002</v>
       </c>
       <c r="I678" s="1" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="J678" t="s">
-        <v>1085</v>
+        <v>1003</v>
       </c>
       <c r="K678" t="s">
         <v>19</v>
@@ -30132,37 +30168,37 @@
         <v>630</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>444</v>
+        <v>349</v>
       </c>
       <c r="C679" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D679" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E679" s="2">
         <v>3</v>
       </c>
-      <c r="F679" s="2">
-        <v>29.94</v>
+      <c r="F679" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="G679" t="s">
-        <v>1086</v>
+        <v>1016</v>
       </c>
       <c r="H679" s="1" t="s">
-        <v>1087</v>
+        <v>1012</v>
       </c>
       <c r="I679" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="J679" t="s">
-        <v>1088</v>
+        <v>1017</v>
       </c>
       <c r="K679" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L679" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="680" spans="1:12">
@@ -30179,22 +30215,22 @@
         <v>14</v>
       </c>
       <c r="E680" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F680" s="2">
-        <v>33.54</v>
+        <v>27.57</v>
       </c>
       <c r="G680" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="H680" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="J680" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="K680" t="s">
         <v>25</v>
@@ -30217,28 +30253,28 @@
         <v>14</v>
       </c>
       <c r="E681" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F681" s="2">
-        <v>34.04</v>
+        <v>28.25</v>
       </c>
       <c r="G681" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="H681" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I681" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="J681" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="K681" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L681" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="682" spans="1:12">
@@ -30249,34 +30285,34 @@
         <v>444</v>
       </c>
       <c r="C682" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D682" t="s">
         <v>14</v>
       </c>
       <c r="E682" s="2">
-        <v>1</v>
-      </c>
-      <c r="F682" s="2" t="s">
-        <v>1094</v>
+        <v>3</v>
+      </c>
+      <c r="F682" s="2">
+        <v>29.94</v>
       </c>
       <c r="G682" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="H682" s="1" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="I682" s="1" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="J682" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="K682" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L682" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -30287,34 +30323,34 @@
         <v>444</v>
       </c>
       <c r="C683" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D683" t="s">
         <v>14</v>
       </c>
       <c r="E683" s="2">
-        <v>2</v>
-      </c>
-      <c r="F683" s="2" t="s">
-        <v>1096</v>
+        <v>4</v>
+      </c>
+      <c r="F683" s="2">
+        <v>33.54</v>
       </c>
       <c r="G683" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="H683" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="I683" s="1" t="s">
-        <v>192</v>
+        <v>456</v>
       </c>
       <c r="J683" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="K683" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L683" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="684" spans="1:12">
@@ -30325,34 +30361,34 @@
         <v>444</v>
       </c>
       <c r="C684" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D684" t="s">
         <v>14</v>
       </c>
       <c r="E684" s="2">
-        <v>3</v>
-      </c>
-      <c r="F684" s="2" t="s">
-        <v>1097</v>
+        <v>5</v>
+      </c>
+      <c r="F684" s="2">
+        <v>34.04</v>
       </c>
       <c r="G684" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H684" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="I684" s="1" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="J684" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="K684" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L684" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="685" spans="1:12">
@@ -30369,28 +30405,28 @@
         <v>14</v>
       </c>
       <c r="E685" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="G685" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H685" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I685" s="1" t="s">
-        <v>456</v>
+        <v>95</v>
       </c>
       <c r="J685" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="K685" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L685" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="686" spans="1:12">
@@ -30407,22 +30443,22 @@
         <v>14</v>
       </c>
       <c r="E686" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="G686" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="H686" s="1" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="I686" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="J686" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K686" t="s">
         <v>19</v>
@@ -30439,34 +30475,34 @@
         <v>444</v>
       </c>
       <c r="C687" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D687" t="s">
         <v>14</v>
       </c>
       <c r="E687" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G687" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="H687" s="1" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="I687" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J687" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="K687" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L687" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="688" spans="1:12">
@@ -30477,28 +30513,28 @@
         <v>444</v>
       </c>
       <c r="C688" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D688" t="s">
         <v>14</v>
       </c>
       <c r="E688" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G688" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H688" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I688" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J688" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K688" t="s">
         <v>19</v>
@@ -30515,34 +30551,34 @@
         <v>444</v>
       </c>
       <c r="C689" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D689" t="s">
         <v>14</v>
       </c>
       <c r="E689" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F689" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G689" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H689" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I689" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J689" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="K689" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L689" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="690" spans="1:12">
@@ -30553,7 +30589,7 @@
         <v>444</v>
       </c>
       <c r="C690" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D690" t="s">
         <v>14</v>
@@ -30562,22 +30598,22 @@
         <v>1</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G690" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H690" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H690" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I690" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J690" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="K690" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L690" t="s">
         <v>26</v>
@@ -30591,7 +30627,7 @@
         <v>444</v>
       </c>
       <c r="C691" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D691" t="s">
         <v>14</v>
@@ -30600,19 +30636,19 @@
         <v>2</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G691" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="H691" s="1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="I691" s="1" t="s">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="J691" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="K691" t="s">
         <v>19</v>
@@ -30629,7 +30665,7 @@
         <v>444</v>
       </c>
       <c r="C692" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D692" t="s">
         <v>14</v>
@@ -30638,22 +30674,22 @@
         <v>3</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G692" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H692" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I692" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J692" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="K692" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L692" t="s">
         <v>26</v>
@@ -30673,28 +30709,28 @@
         <v>14</v>
       </c>
       <c r="E693" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G693" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="H693" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I693" s="1" t="s">
-        <v>1112</v>
+        <v>95</v>
       </c>
       <c r="J693" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="K693" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L693" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -30711,22 +30747,22 @@
         <v>14</v>
       </c>
       <c r="E694" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G694" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="H694" s="1" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="I694" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="J694" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K694" t="s">
         <v>19</v>
@@ -30743,34 +30779,34 @@
         <v>444</v>
       </c>
       <c r="C695" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D695" t="s">
         <v>14</v>
       </c>
       <c r="E695" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F695" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G695" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="H695" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I695" s="1" t="s">
-        <v>95</v>
+        <v>456</v>
       </c>
       <c r="J695" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="K695" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="L695" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="696" spans="1:12">
@@ -30781,34 +30817,34 @@
         <v>444</v>
       </c>
       <c r="C696" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D696" t="s">
         <v>14</v>
       </c>
       <c r="E696" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="G696" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H696" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H696" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="I696" s="1" t="s">
-        <v>147</v>
+        <v>1114</v>
       </c>
       <c r="J696" t="s">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="K696" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L696" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="697" spans="1:12">
@@ -30819,34 +30855,34 @@
         <v>444</v>
       </c>
       <c r="C697" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D697" t="s">
         <v>14</v>
       </c>
       <c r="E697" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G697" t="s">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="H697" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I697" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="J697" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="K697" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L697" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="698" spans="1:12">
@@ -30857,28 +30893,28 @@
         <v>444</v>
       </c>
       <c r="C698" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D698" t="s">
         <v>14</v>
       </c>
       <c r="E698" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G698" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H698" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H698" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I698" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J698" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K698" t="s">
         <v>64</v>
@@ -30895,34 +30931,34 @@
         <v>444</v>
       </c>
       <c r="C699" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D699" t="s">
         <v>14</v>
       </c>
       <c r="E699" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G699" t="s">
-        <v>1122</v>
+        <v>1094</v>
       </c>
       <c r="H699" s="1" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
       <c r="I699" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="J699" t="s">
-        <v>1124</v>
+        <v>1095</v>
       </c>
       <c r="K699" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L699" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -30939,22 +30975,22 @@
         <v>14</v>
       </c>
       <c r="E700" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="G700" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="H700" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I700" s="1" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="J700" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="K700" t="s">
         <v>64</v>
@@ -30977,28 +31013,28 @@
         <v>14</v>
       </c>
       <c r="E701" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G701" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="H701" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I701" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="J701" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="K701" t="s">
-        <v>363</v>
+        <v>64</v>
       </c>
       <c r="L701" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
     </row>
     <row r="702" spans="1:12">
@@ -31015,22 +31051,22 @@
         <v>14</v>
       </c>
       <c r="E702" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="G702" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="H702" s="1" t="s">
-        <v>1090</v>
+        <v>1125</v>
       </c>
       <c r="I702" s="1" t="s">
-        <v>1112</v>
+        <v>62</v>
       </c>
       <c r="J702" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="K702" t="s">
         <v>64</v>
@@ -31053,22 +31089,22 @@
         <v>14</v>
       </c>
       <c r="E703" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G703" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H703" s="1" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="I703" s="1" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="J703" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="K703" t="s">
         <v>64</v>
@@ -31091,28 +31127,28 @@
         <v>14</v>
       </c>
       <c r="E704" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G704" t="s">
-        <v>1134</v>
+        <v>1094</v>
       </c>
       <c r="H704" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I704" s="1" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
       <c r="J704" t="s">
-        <v>1135</v>
+        <v>1095</v>
       </c>
       <c r="K704" t="s">
-        <v>64</v>
+        <v>363</v>
       </c>
       <c r="L704" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
     </row>
     <row r="705" spans="1:12">
@@ -31129,22 +31165,22 @@
         <v>14</v>
       </c>
       <c r="E705" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="G705" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="H705" s="1" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="I705" s="1" t="s">
-        <v>456</v>
+        <v>1114</v>
       </c>
       <c r="J705" t="s">
-        <v>1138</v>
+        <v>1115</v>
       </c>
       <c r="K705" t="s">
         <v>64</v>
@@ -31161,34 +31197,34 @@
         <v>444</v>
       </c>
       <c r="C706" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D706" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E706" s="2">
-        <v>1</v>
-      </c>
-      <c r="F706" s="2">
-        <v>32.46</v>
+        <v>7</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>1132</v>
       </c>
       <c r="G706" t="s">
-        <v>1081</v>
+        <v>1133</v>
       </c>
       <c r="H706" s="1" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="I706" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="J706" t="s">
-        <v>1083</v>
+        <v>1134</v>
       </c>
       <c r="K706" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L706" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="707" spans="1:12">
@@ -31199,34 +31235,34 @@
         <v>444</v>
       </c>
       <c r="C707" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D707" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E707" s="2">
-        <v>2</v>
-      </c>
-      <c r="F707" s="2">
-        <v>33.47</v>
+        <v>8</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>1135</v>
       </c>
       <c r="G707" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H707" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="H707" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="I707" s="1" t="s">
-        <v>95</v>
+        <v>306</v>
       </c>
       <c r="J707" t="s">
-        <v>1085</v>
+        <v>1137</v>
       </c>
       <c r="K707" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L707" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -31237,34 +31273,34 @@
         <v>444</v>
       </c>
       <c r="C708" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D708" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E708" s="2">
-        <v>3</v>
-      </c>
-      <c r="F708" s="2">
-        <v>44.58</v>
+        <v>9</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>1138</v>
       </c>
       <c r="G708" t="s">
-        <v>1092</v>
+        <v>1139</v>
       </c>
       <c r="H708" s="1" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="I708" s="1" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="J708" t="s">
-        <v>1093</v>
+        <v>1140</v>
       </c>
       <c r="K708" t="s">
-        <v>363</v>
+        <v>64</v>
       </c>
       <c r="L708" t="s">
-        <v>364</v>
+        <v>65</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -31281,28 +31317,28 @@
         <v>38</v>
       </c>
       <c r="E709" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F709" s="2">
-        <v>49.58</v>
+        <v>32.46</v>
       </c>
       <c r="G709" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="H709" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I709" s="1" t="s">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="J709" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="K709" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L709" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="710" spans="1:12">
@@ -31313,34 +31349,34 @@
         <v>444</v>
       </c>
       <c r="C710" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D710" t="s">
         <v>38</v>
       </c>
       <c r="E710" s="2">
-        <v>1</v>
-      </c>
-      <c r="F710" s="2" t="s">
-        <v>1139</v>
+        <v>2</v>
+      </c>
+      <c r="F710" s="2">
+        <v>33.47</v>
       </c>
       <c r="G710" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H710" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H710" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I710" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J710" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="K710" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L710" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="711" spans="1:12">
@@ -31351,28 +31387,28 @@
         <v>444</v>
       </c>
       <c r="C711" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D711" t="s">
         <v>38</v>
       </c>
       <c r="E711" s="2">
-        <v>2</v>
-      </c>
-      <c r="F711" s="2" t="s">
-        <v>1140</v>
+        <v>3</v>
+      </c>
+      <c r="F711" s="2">
+        <v>44.58</v>
       </c>
       <c r="G711" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H711" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I711" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J711" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K711" t="s">
         <v>363</v>
@@ -31389,34 +31425,34 @@
         <v>444</v>
       </c>
       <c r="C712" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D712" t="s">
         <v>38</v>
       </c>
       <c r="E712" s="2">
-        <v>3</v>
-      </c>
-      <c r="F712" s="2" t="s">
-        <v>1141</v>
+        <v>4</v>
+      </c>
+      <c r="F712" s="2">
+        <v>49.58</v>
       </c>
       <c r="G712" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H712" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I712" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J712" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K712" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L712" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="713" spans="1:12">
@@ -31427,7 +31463,7 @@
         <v>444</v>
       </c>
       <c r="C713" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D713" t="s">
         <v>38</v>
@@ -31436,22 +31472,22 @@
         <v>1</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G713" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H713" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H713" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I713" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J713" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="K713" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L713" t="s">
         <v>26</v>
@@ -31465,7 +31501,7 @@
         <v>444</v>
       </c>
       <c r="C714" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D714" t="s">
         <v>38</v>
@@ -31474,25 +31510,25 @@
         <v>2</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G714" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="H714" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I714" s="1" t="s">
-        <v>1112</v>
+        <v>147</v>
       </c>
       <c r="J714" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
       <c r="K714" t="s">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="L714" t="s">
-        <v>20</v>
+        <v>364</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -31503,7 +31539,7 @@
         <v>444</v>
       </c>
       <c r="C715" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D715" t="s">
         <v>38</v>
@@ -31512,22 +31548,22 @@
         <v>3</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G715" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H715" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I715" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J715" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K715" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L715" t="s">
         <v>26</v>
@@ -31547,28 +31583,28 @@
         <v>38</v>
       </c>
       <c r="E716" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G716" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="H716" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I716" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="J716" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="K716" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L716" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -31579,34 +31615,34 @@
         <v>444</v>
       </c>
       <c r="C717" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D717" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E717" s="2">
-        <v>1</v>
-      </c>
-      <c r="F717" s="2">
-        <v>35.06</v>
+        <v>2</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>1145</v>
       </c>
       <c r="G717" t="s">
-        <v>1146</v>
+        <v>1113</v>
       </c>
       <c r="H717" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I717" s="1" t="s">
-        <v>1147</v>
+        <v>1114</v>
       </c>
       <c r="J717" t="s">
-        <v>1148</v>
+        <v>1115</v>
       </c>
       <c r="K717" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="L717" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -31617,31 +31653,31 @@
         <v>444</v>
       </c>
       <c r="C718" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D718" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E718" s="2">
-        <v>2</v>
-      </c>
-      <c r="F718" s="2">
-        <v>38.84</v>
+        <v>3</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>1146</v>
       </c>
       <c r="G718" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H718" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H718" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="I718" s="1" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="J718" t="s">
         <v>1093</v>
       </c>
       <c r="K718" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L718" t="s">
         <v>26</v>
@@ -31655,34 +31691,34 @@
         <v>444</v>
       </c>
       <c r="C719" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D719" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E719" s="2">
-        <v>3</v>
-      </c>
-      <c r="F719" s="2">
-        <v>39.27</v>
+        <v>4</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>1147</v>
       </c>
       <c r="G719" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H719" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I719" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J719" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="K719" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="L719" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="720" spans="1:12">
@@ -31693,7 +31729,7 @@
         <v>444</v>
       </c>
       <c r="C720" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D720" t="s">
         <v>43</v>
@@ -31701,20 +31737,20 @@
       <c r="E720" s="2">
         <v>1</v>
       </c>
-      <c r="F720" s="2" t="s">
+      <c r="F720" s="2">
+        <v>35.06</v>
+      </c>
+      <c r="G720" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I720" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="G720" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H720" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I720" s="1" t="s">
-        <v>1147</v>
-      </c>
       <c r="J720" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="K720" t="s">
         <v>285</v>
@@ -31731,7 +31767,7 @@
         <v>444</v>
       </c>
       <c r="C721" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D721" t="s">
         <v>43</v>
@@ -31739,23 +31775,23 @@
       <c r="E721" s="2">
         <v>2</v>
       </c>
-      <c r="F721" s="2" t="s">
-        <v>1150</v>
+      <c r="F721" s="2">
+        <v>38.84</v>
       </c>
       <c r="G721" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H721" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I721" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J721" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K721" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L721" t="s">
         <v>26</v>
@@ -31769,7 +31805,7 @@
         <v>444</v>
       </c>
       <c r="C722" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D722" t="s">
         <v>43</v>
@@ -31777,20 +31813,20 @@
       <c r="E722" s="2">
         <v>3</v>
       </c>
-      <c r="F722" s="2" t="s">
-        <v>1151</v>
+      <c r="F722" s="2">
+        <v>39.27</v>
       </c>
       <c r="G722" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H722" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I722" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J722" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K722" t="s">
         <v>285</v>
@@ -31807,7 +31843,7 @@
         <v>444</v>
       </c>
       <c r="C723" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D723" t="s">
         <v>43</v>
@@ -31816,19 +31852,19 @@
         <v>1</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G723" t="s">
-        <v>1089</v>
+        <v>1148</v>
       </c>
       <c r="H723" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I723" s="1" t="s">
-        <v>456</v>
+        <v>1149</v>
       </c>
       <c r="J723" t="s">
-        <v>1091</v>
+        <v>1150</v>
       </c>
       <c r="K723" t="s">
         <v>285</v>
@@ -31845,7 +31881,7 @@
         <v>444</v>
       </c>
       <c r="C724" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D724" t="s">
         <v>43</v>
@@ -31854,25 +31890,25 @@
         <v>2</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G724" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H724" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I724" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J724" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="K724" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L724" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="725" spans="1:12">
@@ -31883,7 +31919,7 @@
         <v>444</v>
       </c>
       <c r="C725" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D725" t="s">
         <v>43</v>
@@ -31892,25 +31928,25 @@
         <v>3</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G725" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="H725" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I725" s="1" t="s">
-        <v>1112</v>
+        <v>456</v>
       </c>
       <c r="J725" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="K725" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="L725" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="726" spans="1:12">
@@ -31921,34 +31957,34 @@
         <v>444</v>
       </c>
       <c r="C726" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D726" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E726" s="2">
         <v>1</v>
       </c>
-      <c r="F726" s="2">
-        <v>30.65</v>
+      <c r="F726" s="2" t="s">
+        <v>1154</v>
       </c>
       <c r="G726" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="H726" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I726" s="1" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="J726" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="K726" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="L726" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="727" spans="1:12">
@@ -31959,28 +31995,28 @@
         <v>444</v>
       </c>
       <c r="C727" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D727" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E727" s="2">
         <v>2</v>
       </c>
-      <c r="F727" s="2">
-        <v>33.3</v>
+      <c r="F727" s="2" t="s">
+        <v>1155</v>
       </c>
       <c r="G727" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="H727" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I727" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="J727" t="s">
-        <v>1088</v>
+        <v>1105</v>
       </c>
       <c r="K727" t="s">
         <v>19</v>
@@ -31997,34 +32033,34 @@
         <v>444</v>
       </c>
       <c r="C728" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D728" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E728" s="2">
         <v>3</v>
       </c>
-      <c r="F728" s="2">
-        <v>36.46</v>
+      <c r="F728" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="G728" t="s">
-        <v>1089</v>
+        <v>1113</v>
       </c>
       <c r="H728" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I728" s="1" t="s">
-        <v>456</v>
+        <v>1114</v>
       </c>
       <c r="J728" t="s">
-        <v>1091</v>
+        <v>1115</v>
       </c>
       <c r="K728" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="L728" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="729" spans="1:12">
@@ -32041,28 +32077,28 @@
         <v>47</v>
       </c>
       <c r="E729" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F729" s="2">
-        <v>37.34</v>
+        <v>30.65</v>
       </c>
       <c r="G729" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="H729" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I729" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="J729" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="K729" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
       <c r="L729" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
     </row>
     <row r="730" spans="1:12">
@@ -32073,34 +32109,34 @@
         <v>444</v>
       </c>
       <c r="C730" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D730" t="s">
         <v>47</v>
       </c>
       <c r="E730" s="2">
-        <v>1</v>
-      </c>
-      <c r="F730" s="2" t="s">
-        <v>1155</v>
+        <v>2</v>
+      </c>
+      <c r="F730" s="2">
+        <v>33.3</v>
       </c>
       <c r="G730" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="H730" s="1" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="I730" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="J730" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="K730" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="L730" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
     </row>
     <row r="731" spans="1:12">
@@ -32111,34 +32147,34 @@
         <v>444</v>
       </c>
       <c r="C731" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D731" t="s">
         <v>47</v>
       </c>
       <c r="E731" s="2">
-        <v>2</v>
-      </c>
-      <c r="F731" s="2" t="s">
-        <v>1156</v>
+        <v>3</v>
+      </c>
+      <c r="F731" s="2">
+        <v>36.46</v>
       </c>
       <c r="G731" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H731" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I731" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J731" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K731" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="L731" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -32149,34 +32185,34 @@
         <v>444</v>
       </c>
       <c r="C732" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D732" t="s">
         <v>47</v>
       </c>
       <c r="E732" s="2">
-        <v>1</v>
-      </c>
-      <c r="F732" s="2" t="s">
-        <v>1157</v>
+        <v>4</v>
+      </c>
+      <c r="F732" s="2">
+        <v>37.34</v>
       </c>
       <c r="G732" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H732" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I732" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J732" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="K732" t="s">
-        <v>25</v>
+        <v>363</v>
       </c>
       <c r="L732" t="s">
-        <v>26</v>
+        <v>364</v>
       </c>
     </row>
     <row r="733" spans="1:12">
@@ -32187,34 +32223,34 @@
         <v>444</v>
       </c>
       <c r="C733" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D733" t="s">
         <v>47</v>
       </c>
       <c r="E733" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G733" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H733" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I733" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J733" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="K733" t="s">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="L733" t="s">
-        <v>20</v>
+        <v>364</v>
       </c>
     </row>
     <row r="734" spans="1:12">
@@ -32225,34 +32261,34 @@
         <v>444</v>
       </c>
       <c r="C734" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D734" t="s">
         <v>47</v>
       </c>
       <c r="E734" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G734" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="H734" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I734" s="1" t="s">
-        <v>1112</v>
+        <v>456</v>
       </c>
       <c r="J734" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="K734" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L734" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -32263,31 +32299,31 @@
         <v>444</v>
       </c>
       <c r="C735" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D735" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E735" s="2">
         <v>1</v>
       </c>
       <c r="F735" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G735" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="H735" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I735" s="1" t="s">
-        <v>95</v>
+        <v>456</v>
       </c>
       <c r="J735" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="K735" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L735" t="s">
         <v>26</v>
@@ -32301,28 +32337,28 @@
         <v>444</v>
       </c>
       <c r="C736" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D736" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E736" s="2">
         <v>2</v>
       </c>
       <c r="F736" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G736" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H736" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I736" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J736" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="K736" t="s">
         <v>19</v>
@@ -32339,34 +32375,34 @@
         <v>444</v>
       </c>
       <c r="C737" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D737" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E737" s="2">
         <v>3</v>
       </c>
       <c r="F737" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G737" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H737" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H737" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="I737" s="1" t="s">
-        <v>147</v>
+        <v>1114</v>
       </c>
       <c r="J737" t="s">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="K737" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="L737" t="s">
-        <v>364</v>
+        <v>20</v>
       </c>
     </row>
     <row r="738" spans="1:12">
@@ -32377,7 +32413,7 @@
         <v>444</v>
       </c>
       <c r="C738" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D738" t="s">
         <v>50</v>
@@ -32386,25 +32422,25 @@
         <v>1</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G738" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H738" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H738" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I738" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J738" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="K738" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L738" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="739" spans="1:12">
@@ -32415,7 +32451,7 @@
         <v>444</v>
       </c>
       <c r="C739" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D739" t="s">
         <v>50</v>
@@ -32424,25 +32460,25 @@
         <v>2</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G739" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H739" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="H739" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="I739" s="1" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="J739" t="s">
         <v>1093</v>
       </c>
       <c r="K739" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L739" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="740" spans="1:12">
@@ -32453,7 +32489,7 @@
         <v>444</v>
       </c>
       <c r="C740" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D740" t="s">
         <v>50</v>
@@ -32462,25 +32498,25 @@
         <v>3</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G740" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="H740" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J740" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="K740" t="s">
-        <v>37</v>
+        <v>363</v>
       </c>
       <c r="L740" t="s">
-        <v>26</v>
+        <v>364</v>
       </c>
     </row>
     <row r="741" spans="1:12">
@@ -32491,7 +32527,7 @@
         <v>444</v>
       </c>
       <c r="C741" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D741" t="s">
         <v>50</v>
@@ -32500,19 +32536,19 @@
         <v>1</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G741" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H741" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="H741" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="I741" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J741" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="K741" t="s">
         <v>19</v>
@@ -32529,7 +32565,7 @@
         <v>444</v>
       </c>
       <c r="C742" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D742" t="s">
         <v>50</v>
@@ -32538,25 +32574,25 @@
         <v>2</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G742" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H742" s="1" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I742" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J742" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="K742" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L742" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="743" spans="1:12">
@@ -32567,7 +32603,7 @@
         <v>444</v>
       </c>
       <c r="C743" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D743" t="s">
         <v>50</v>
@@ -32576,22 +32612,22 @@
         <v>3</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G743" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H743" s="1" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="I743" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J743" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K743" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L743" t="s">
         <v>26</v>
@@ -32611,22 +32647,22 @@
         <v>50</v>
       </c>
       <c r="E744" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G744" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="H744" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>1112</v>
+        <v>95</v>
       </c>
       <c r="J744" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
       <c r="K744" t="s">
         <v>19</v>
@@ -32640,31 +32676,31 @@
         <v>630</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C745" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D745" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E745" s="2">
-        <v>1</v>
-      </c>
-      <c r="F745" s="2">
-        <v>27.12</v>
+        <v>2</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="G745" t="s">
-        <v>1170</v>
+        <v>1094</v>
       </c>
       <c r="H745" s="1" t="s">
-        <v>1171</v>
+        <v>1084</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="J745" t="s">
-        <v>1172</v>
+        <v>1105</v>
       </c>
       <c r="K745" t="s">
         <v>19</v>
@@ -32678,31 +32714,31 @@
         <v>630</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C746" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D746" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E746" s="2">
-        <v>2</v>
-      </c>
-      <c r="F746" s="2">
-        <v>27.42</v>
+        <v>3</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>1170</v>
       </c>
       <c r="G746" t="s">
-        <v>1173</v>
+        <v>1091</v>
       </c>
       <c r="H746" s="1" t="s">
-        <v>1171</v>
+        <v>1092</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="J746" t="s">
-        <v>1174</v>
+        <v>1093</v>
       </c>
       <c r="K746" t="s">
         <v>25</v>
@@ -32716,37 +32752,37 @@
         <v>630</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="C747" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D747" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E747" s="2">
-        <v>3</v>
-      </c>
-      <c r="F747" s="2">
-        <v>29.54</v>
+        <v>4</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>1171</v>
       </c>
       <c r="G747" t="s">
-        <v>1175</v>
+        <v>1113</v>
       </c>
       <c r="H747" s="1" t="s">
-        <v>1176</v>
+        <v>1092</v>
       </c>
       <c r="I747" s="1" t="s">
-        <v>1147</v>
+        <v>1114</v>
       </c>
       <c r="J747" t="s">
-        <v>1177</v>
+        <v>1115</v>
       </c>
       <c r="K747" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="L747" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="748" spans="1:12">
@@ -32763,22 +32799,22 @@
         <v>14</v>
       </c>
       <c r="E748" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F748" s="2">
-        <v>29.86</v>
+        <v>27.12</v>
       </c>
       <c r="G748" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="H748" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I748" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J748" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="K748" t="s">
         <v>19</v>
@@ -32801,28 +32837,28 @@
         <v>14</v>
       </c>
       <c r="E749" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F749" s="2">
-        <v>30.74</v>
+        <v>27.42</v>
       </c>
       <c r="G749" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="H749" s="1" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="I749" s="1" t="s">
-        <v>456</v>
+        <v>147</v>
       </c>
       <c r="J749" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="K749" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L749" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="750" spans="1:12">
@@ -32839,28 +32875,28 @@
         <v>14</v>
       </c>
       <c r="E750" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F750" s="2">
-        <v>32.74</v>
+        <v>29.54</v>
       </c>
       <c r="G750" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="H750" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J750" t="s">
         <v>1179</v>
       </c>
-      <c r="I750" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J750" t="s">
-        <v>1185</v>
-      </c>
       <c r="K750" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="L750" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -32871,34 +32907,34 @@
         <v>486</v>
       </c>
       <c r="C751" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D751" t="s">
         <v>14</v>
       </c>
       <c r="E751" s="2">
-        <v>1</v>
-      </c>
-      <c r="F751" s="2" t="s">
-        <v>1186</v>
+        <v>4</v>
+      </c>
+      <c r="F751" s="2">
+        <v>29.86</v>
       </c>
       <c r="G751" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="H751" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I751" s="1" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="J751" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="K751" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L751" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="752" spans="1:12">
@@ -32909,28 +32945,28 @@
         <v>486</v>
       </c>
       <c r="C752" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D752" t="s">
         <v>14</v>
       </c>
       <c r="E752" s="2">
-        <v>2</v>
-      </c>
-      <c r="F752" s="2" t="s">
-        <v>1187</v>
+        <v>5</v>
+      </c>
+      <c r="F752" s="2">
+        <v>30.74</v>
       </c>
       <c r="G752" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="H752" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="I752" s="1" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="J752" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="K752" t="s">
         <v>19</v>
@@ -32947,28 +32983,28 @@
         <v>486</v>
       </c>
       <c r="C753" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D753" t="s">
         <v>14</v>
       </c>
       <c r="E753" s="2">
-        <v>3</v>
-      </c>
-      <c r="F753" s="2" t="s">
-        <v>1188</v>
+        <v>6</v>
+      </c>
+      <c r="F753" s="2">
+        <v>32.74</v>
       </c>
       <c r="G753" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H753" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="H753" s="1" t="s">
-        <v>1182</v>
-      </c>
       <c r="I753" s="1" t="s">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="J753" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="K753" t="s">
         <v>19</v>
@@ -32991,28 +33027,28 @@
         <v>14</v>
       </c>
       <c r="E754" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G754" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="H754" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I754" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J754" t="s">
         <v>1176</v>
       </c>
-      <c r="I754" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J754" t="s">
-        <v>1191</v>
-      </c>
       <c r="K754" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L754" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="755" spans="1:12">
@@ -33023,34 +33059,34 @@
         <v>486</v>
       </c>
       <c r="C755" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D755" t="s">
         <v>14</v>
       </c>
       <c r="E755" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="G755" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H755" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I755" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J755" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="K755" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L755" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="756" spans="1:12">
@@ -33061,28 +33097,28 @@
         <v>486</v>
       </c>
       <c r="C756" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D756" t="s">
         <v>14</v>
       </c>
       <c r="E756" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="G756" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H756" s="1" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="I756" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J756" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="K756" t="s">
         <v>19</v>
@@ -33099,28 +33135,28 @@
         <v>486</v>
       </c>
       <c r="C757" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D757" t="s">
         <v>14</v>
       </c>
       <c r="E757" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G757" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="H757" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I757" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J757" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="K757" t="s">
         <v>19</v>
@@ -33143,28 +33179,28 @@
         <v>14</v>
       </c>
       <c r="E758" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G758" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="H758" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>100</v>
+        <v>489</v>
       </c>
       <c r="J758" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="K758" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L758" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="759" spans="1:12">
@@ -33175,34 +33211,34 @@
         <v>486</v>
       </c>
       <c r="C759" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D759" t="s">
         <v>14</v>
       </c>
       <c r="E759" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G759" t="s">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="H759" s="1" t="s">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="I759" s="1" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="J759" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="K759" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L759" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -33213,28 +33249,28 @@
         <v>486</v>
       </c>
       <c r="C760" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D760" t="s">
         <v>14</v>
       </c>
       <c r="E760" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G760" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="H760" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="I760" s="1" t="s">
-        <v>456</v>
+        <v>119</v>
       </c>
       <c r="J760" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="K760" t="s">
         <v>19</v>
@@ -33251,28 +33287,28 @@
         <v>486</v>
       </c>
       <c r="C761" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D761" t="s">
         <v>14</v>
       </c>
       <c r="E761" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G761" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="H761" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I761" s="1" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="J761" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="K761" t="s">
         <v>19</v>
@@ -33289,7 +33325,7 @@
         <v>486</v>
       </c>
       <c r="C762" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D762" t="s">
         <v>14</v>
@@ -33298,25 +33334,25 @@
         <v>1</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="G762" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="H762" s="1" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="I762" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J762" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="K762" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="L762" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -33327,7 +33363,7 @@
         <v>486</v>
       </c>
       <c r="C763" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D763" t="s">
         <v>14</v>
@@ -33336,25 +33372,25 @@
         <v>2</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G763" t="s">
-        <v>1207</v>
+        <v>1183</v>
       </c>
       <c r="H763" s="1" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="I763" s="1" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="J763" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="K763" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L763" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="764" spans="1:12">
@@ -33365,7 +33401,7 @@
         <v>486</v>
       </c>
       <c r="C764" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D764" t="s">
         <v>14</v>
@@ -33374,25 +33410,25 @@
         <v>3</v>
       </c>
       <c r="F764" s="2" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="G764" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H764" s="1" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="I764" s="1" t="s">
         <v>306</v>
       </c>
       <c r="J764" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="K764" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L764" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="765" spans="1:12">
@@ -33409,22 +33445,22 @@
         <v>14</v>
       </c>
       <c r="E765" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G765" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="H765" s="1" t="s">
-        <v>1182</v>
+        <v>1206</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>1212</v>
+        <v>496</v>
       </c>
       <c r="J765" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="K765" t="s">
         <v>64</v>
@@ -33441,34 +33477,34 @@
         <v>486</v>
       </c>
       <c r="C766" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D766" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E766" s="2">
-        <v>1</v>
-      </c>
-      <c r="F766" s="2">
-        <v>36.25</v>
+        <v>2</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>1208</v>
       </c>
       <c r="G766" t="s">
-        <v>1178</v>
+        <v>1209</v>
       </c>
       <c r="H766" s="1" t="s">
-        <v>1179</v>
+        <v>1206</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>489</v>
+        <v>306</v>
       </c>
       <c r="J766" t="s">
-        <v>1180</v>
+        <v>1210</v>
       </c>
       <c r="K766" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L766" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="767" spans="1:12">
@@ -33479,34 +33515,34 @@
         <v>486</v>
       </c>
       <c r="C767" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D767" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E767" s="2">
-        <v>2</v>
-      </c>
-      <c r="F767" s="2">
-        <v>44.05</v>
+        <v>3</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>1211</v>
       </c>
       <c r="G767" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="H767" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="I767" s="1" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="J767" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="K767" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L767" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="768" spans="1:12">
@@ -33517,34 +33553,34 @@
         <v>486</v>
       </c>
       <c r="C768" s="2">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="D768" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E768" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F768" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G768" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H768" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I768" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="G768" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H768" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I768" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J768" t="s">
-        <v>1174</v>
+        <v>1215</v>
       </c>
       <c r="K768" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="L768" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="769" spans="1:12">
@@ -33555,28 +33591,28 @@
         <v>486</v>
       </c>
       <c r="C769" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D769" t="s">
         <v>38</v>
       </c>
       <c r="E769" s="2">
-        <v>2</v>
-      </c>
-      <c r="F769" s="2" t="s">
-        <v>1215</v>
+        <v>1</v>
+      </c>
+      <c r="F769" s="2">
+        <v>36.25</v>
       </c>
       <c r="G769" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="H769" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I769" s="1" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
       <c r="J769" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="K769" t="s">
         <v>19</v>
@@ -33596,31 +33632,31 @@
         <v>50</v>
       </c>
       <c r="D770" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E770" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F770" s="2">
-        <v>36.57</v>
+        <v>44.05</v>
       </c>
       <c r="G770" t="s">
-        <v>1175</v>
+        <v>1192</v>
       </c>
       <c r="H770" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I770" s="1" t="s">
-        <v>1147</v>
+        <v>119</v>
       </c>
       <c r="J770" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="K770" t="s">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="L770" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="771" spans="1:12">
@@ -33631,31 +33667,31 @@
         <v>486</v>
       </c>
       <c r="C771" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D771" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E771" s="2">
-        <v>2</v>
-      </c>
-      <c r="F771" s="2">
-        <v>38.17</v>
+        <v>1</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>1216</v>
       </c>
       <c r="G771" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H771" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="H771" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="I771" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J771" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="K771" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L771" t="s">
         <v>26</v>
@@ -33669,28 +33705,28 @@
         <v>486</v>
       </c>
       <c r="C772" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D772" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E772" s="2">
-        <v>3</v>
-      </c>
-      <c r="F772" s="2">
-        <v>43.06</v>
+        <v>2</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>1217</v>
       </c>
       <c r="G772" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="H772" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="I772" s="1" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
       <c r="J772" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="K772" t="s">
         <v>19</v>
@@ -33707,7 +33743,7 @@
         <v>486</v>
       </c>
       <c r="C773" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D773" t="s">
         <v>43</v>
@@ -33715,20 +33751,20 @@
       <c r="E773" s="2">
         <v>1</v>
       </c>
-      <c r="F773" s="2" t="s">
-        <v>1216</v>
+      <c r="F773" s="2">
+        <v>36.57</v>
       </c>
       <c r="G773" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="H773" s="1" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="I773" s="1" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="J773" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="K773" t="s">
         <v>356</v>
@@ -33745,34 +33781,34 @@
         <v>486</v>
       </c>
       <c r="C774" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D774" t="s">
         <v>43</v>
       </c>
       <c r="E774" s="2">
-        <v>1</v>
-      </c>
-      <c r="F774" s="2" t="s">
-        <v>1217</v>
+        <v>2</v>
+      </c>
+      <c r="F774" s="2">
+        <v>38.17</v>
       </c>
       <c r="G774" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="H774" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I774" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J774" t="s">
         <v>1176</v>
       </c>
-      <c r="I774" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J774" t="s">
-        <v>1191</v>
-      </c>
       <c r="K774" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L774" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="775" spans="1:12">
@@ -33783,28 +33819,28 @@
         <v>486</v>
       </c>
       <c r="C775" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D775" t="s">
         <v>43</v>
       </c>
       <c r="E775" s="2">
-        <v>2</v>
-      </c>
-      <c r="F775" s="2" t="s">
-        <v>1218</v>
+        <v>3</v>
+      </c>
+      <c r="F775" s="2">
+        <v>43.06</v>
       </c>
       <c r="G775" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="H775" s="1" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="J775" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="K775" t="s">
         <v>19</v>
@@ -33821,34 +33857,34 @@
         <v>486</v>
       </c>
       <c r="C776" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D776" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E776" s="2">
         <v>1</v>
       </c>
-      <c r="F776" s="2">
-        <v>31.31</v>
+      <c r="F776" s="2" t="s">
+        <v>1218</v>
       </c>
       <c r="G776" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="H776" s="1" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="I776" s="1" t="s">
-        <v>489</v>
+        <v>1149</v>
       </c>
       <c r="J776" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="K776" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="L776" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="777" spans="1:12">
@@ -33859,34 +33895,34 @@
         <v>486</v>
       </c>
       <c r="C777" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D777" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E777" s="2">
-        <v>2</v>
-      </c>
-      <c r="F777" s="2">
-        <v>32.37</v>
+        <v>1</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>1219</v>
       </c>
       <c r="G777" t="s">
-        <v>1173</v>
+        <v>1192</v>
       </c>
       <c r="H777" s="1" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="I777" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="J777" t="s">
-        <v>1174</v>
+        <v>1193</v>
       </c>
       <c r="K777" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L777" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -33897,28 +33933,28 @@
         <v>486</v>
       </c>
       <c r="C778" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D778" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E778" s="2">
-        <v>3</v>
-      </c>
-      <c r="F778" s="2">
-        <v>33.15</v>
+        <v>2</v>
+      </c>
+      <c r="F778" s="2" t="s">
+        <v>1220</v>
       </c>
       <c r="G778" t="s">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="H778" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I778" s="1" t="s">
-        <v>489</v>
+        <v>306</v>
       </c>
       <c r="J778" t="s">
-        <v>1180</v>
+        <v>1203</v>
       </c>
       <c r="K778" t="s">
         <v>19</v>
@@ -33941,22 +33977,22 @@
         <v>47</v>
       </c>
       <c r="E779" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F779" s="2">
-        <v>42.03</v>
+        <v>31.31</v>
       </c>
       <c r="G779" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="H779" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>100</v>
+        <v>489</v>
       </c>
       <c r="J779" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="K779" t="s">
         <v>19</v>
@@ -33973,31 +34009,31 @@
         <v>486</v>
       </c>
       <c r="C780" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D780" t="s">
         <v>47</v>
       </c>
       <c r="E780" s="2">
-        <v>1</v>
-      </c>
-      <c r="F780" s="2" t="s">
-        <v>1219</v>
+        <v>2</v>
+      </c>
+      <c r="F780" s="2">
+        <v>32.37</v>
       </c>
       <c r="G780" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H780" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="J780" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
       <c r="K780" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L780" t="s">
         <v>26</v>
@@ -34011,34 +34047,34 @@
         <v>486</v>
       </c>
       <c r="C781" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D781" t="s">
         <v>47</v>
       </c>
       <c r="E781" s="2">
-        <v>1</v>
-      </c>
-      <c r="F781" s="2" t="s">
-        <v>1220</v>
+        <v>3</v>
+      </c>
+      <c r="F781" s="2">
+        <v>33.15</v>
       </c>
       <c r="G781" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H781" s="1" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I781" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J781" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="K781" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L781" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="782" spans="1:12">
@@ -34049,28 +34085,28 @@
         <v>486</v>
       </c>
       <c r="C782" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D782" t="s">
         <v>47</v>
       </c>
       <c r="E782" s="2">
-        <v>2</v>
-      </c>
-      <c r="F782" s="2" t="s">
-        <v>1221</v>
+        <v>4</v>
+      </c>
+      <c r="F782" s="2">
+        <v>42.03</v>
       </c>
       <c r="G782" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="H782" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="J782" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="K782" t="s">
         <v>19</v>
@@ -34090,25 +34126,25 @@
         <v>100</v>
       </c>
       <c r="D783" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E783" s="2">
         <v>1</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G783" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="H783" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="J783" t="s">
-        <v>1174</v>
+        <v>1195</v>
       </c>
       <c r="K783" t="s">
         <v>33</v>
@@ -34125,34 +34161,34 @@
         <v>486</v>
       </c>
       <c r="C784" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D784" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E784" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G784" t="s">
-        <v>1175</v>
+        <v>1180</v>
       </c>
       <c r="H784" s="1" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="I784" s="1" t="s">
-        <v>1147</v>
+        <v>489</v>
       </c>
       <c r="J784" t="s">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="K784" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="L784" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="785" spans="1:12">
@@ -34163,28 +34199,28 @@
         <v>486</v>
       </c>
       <c r="C785" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D785" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E785" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G785" t="s">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="H785" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="I785" s="1" t="s">
-        <v>489</v>
+        <v>306</v>
       </c>
       <c r="J785" t="s">
-        <v>1180</v>
+        <v>1203</v>
       </c>
       <c r="K785" t="s">
         <v>19</v>
@@ -34207,28 +34243,28 @@
         <v>50</v>
       </c>
       <c r="E786" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G786" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="H786" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I786" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J786" t="s">
         <v>1176</v>
       </c>
-      <c r="I786" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J786" t="s">
-        <v>1191</v>
-      </c>
       <c r="K786" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L786" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="787" spans="1:12">
@@ -34239,34 +34275,34 @@
         <v>486</v>
       </c>
       <c r="C787" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D787" t="s">
         <v>50</v>
       </c>
       <c r="E787" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G787" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H787" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="H787" s="1" t="s">
+      <c r="I787" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J787" t="s">
         <v>1179</v>
       </c>
-      <c r="I787" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J787" t="s">
-        <v>1193</v>
-      </c>
       <c r="K787" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="L787" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="788" spans="1:12">
@@ -34277,28 +34313,28 @@
         <v>486</v>
       </c>
       <c r="C788" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D788" t="s">
         <v>50</v>
       </c>
       <c r="E788" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G788" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="H788" s="1" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
       <c r="J788" t="s">
-        <v>1201</v>
+        <v>1182</v>
       </c>
       <c r="K788" t="s">
         <v>19</v>
@@ -34312,37 +34348,37 @@
         <v>630</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="C789" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D789" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E789" s="2">
-        <v>1</v>
-      </c>
-      <c r="F789" s="2">
-        <v>28.54</v>
+        <v>4</v>
+      </c>
+      <c r="F789" s="2" t="s">
+        <v>1227</v>
       </c>
       <c r="G789" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="H789" s="1" t="s">
-        <v>1229</v>
+        <v>1178</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J789" t="s">
-        <v>1230</v>
+        <v>1193</v>
       </c>
       <c r="K789" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L789" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="790" spans="1:12">
@@ -34350,37 +34386,37 @@
         <v>630</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="C790" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D790" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E790" s="2">
-        <v>2</v>
-      </c>
-      <c r="F790" s="2">
-        <v>30.51</v>
+        <v>1</v>
+      </c>
+      <c r="F790" s="2" t="s">
+        <v>1228</v>
       </c>
       <c r="G790" t="s">
-        <v>1231</v>
+        <v>1180</v>
       </c>
       <c r="H790" s="1" t="s">
-        <v>1232</v>
+        <v>1181</v>
       </c>
       <c r="I790" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J790" t="s">
-        <v>1233</v>
+        <v>1195</v>
       </c>
       <c r="K790" t="s">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="L790" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="791" spans="1:12">
@@ -34388,31 +34424,31 @@
         <v>630</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="C791" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D791" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E791" s="2">
-        <v>3</v>
-      </c>
-      <c r="F791" s="2">
-        <v>30.63</v>
+        <v>1</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>1229</v>
       </c>
       <c r="G791" t="s">
-        <v>1234</v>
+        <v>1202</v>
       </c>
       <c r="H791" s="1" t="s">
-        <v>1229</v>
+        <v>1173</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>489</v>
+        <v>306</v>
       </c>
       <c r="J791" t="s">
-        <v>1235</v>
+        <v>1203</v>
       </c>
       <c r="K791" t="s">
         <v>19</v>
@@ -34435,28 +34471,28 @@
         <v>14</v>
       </c>
       <c r="E792" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F792" s="2">
-        <v>32.67</v>
+        <v>28.54</v>
       </c>
       <c r="G792" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="H792" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>1147</v>
+        <v>123</v>
       </c>
       <c r="J792" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K792" t="s">
-        <v>463</v>
+        <v>25</v>
       </c>
       <c r="L792" t="s">
-        <v>537</v>
+        <v>26</v>
       </c>
     </row>
     <row r="793" spans="1:12">
@@ -34473,28 +34509,28 @@
         <v>14</v>
       </c>
       <c r="E793" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F793" s="2">
-        <v>44.69</v>
+        <v>30.37</v>
       </c>
       <c r="G793" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="H793" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>456</v>
+        <v>62</v>
       </c>
       <c r="J793" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K793" t="s">
-        <v>19</v>
+        <v>1064</v>
       </c>
       <c r="L793" t="s">
-        <v>20</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="794" spans="1:12">
@@ -34511,28 +34547,28 @@
         <v>14</v>
       </c>
       <c r="E794" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F794" s="2">
-        <v>48.85</v>
+        <v>30.51</v>
       </c>
       <c r="G794" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="H794" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>1242</v>
+        <v>489</v>
       </c>
       <c r="J794" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="K794" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="L794" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="795" spans="1:12">
@@ -34543,34 +34579,34 @@
         <v>531</v>
       </c>
       <c r="C795" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D795" t="s">
         <v>14</v>
       </c>
       <c r="E795" s="2">
-        <v>1</v>
-      </c>
-      <c r="F795" s="2" t="s">
-        <v>1244</v>
+        <v>4</v>
+      </c>
+      <c r="F795" s="2">
+        <v>30.63</v>
       </c>
       <c r="G795" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="H795" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>123</v>
+        <v>489</v>
       </c>
       <c r="J795" t="s">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="K795" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L795" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="796" spans="1:12">
@@ -34581,34 +34617,34 @@
         <v>531</v>
       </c>
       <c r="C796" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D796" t="s">
         <v>14</v>
       </c>
       <c r="E796" s="2">
-        <v>2</v>
-      </c>
-      <c r="F796" s="2" t="s">
-        <v>1245</v>
+        <v>5</v>
+      </c>
+      <c r="F796" s="2">
+        <v>32.67</v>
       </c>
       <c r="G796" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="H796" s="1" t="s">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>489</v>
+        <v>1149</v>
       </c>
       <c r="J796" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="K796" t="s">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="L796" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="797" spans="1:12">
@@ -34619,28 +34655,28 @@
         <v>531</v>
       </c>
       <c r="C797" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D797" t="s">
         <v>14</v>
       </c>
       <c r="E797" s="2">
-        <v>3</v>
-      </c>
-      <c r="F797" s="2" t="s">
-        <v>1246</v>
+        <v>6</v>
+      </c>
+      <c r="F797" s="2">
+        <v>44.69</v>
       </c>
       <c r="G797" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="H797" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I797" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J797" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="K797" t="s">
         <v>19</v>
@@ -34657,28 +34693,28 @@
         <v>531</v>
       </c>
       <c r="C798" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D798" t="s">
         <v>14</v>
       </c>
       <c r="E798" s="2">
-        <v>1</v>
-      </c>
-      <c r="F798" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F798" s="2">
+        <v>48.85</v>
+      </c>
+      <c r="G798" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H798" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I798" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J798" t="s">
         <v>1247</v>
-      </c>
-      <c r="G798" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H798" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I798" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J798" t="s">
-        <v>1249</v>
       </c>
       <c r="K798" t="s">
         <v>19</v>
@@ -34695,7 +34731,7 @@
         <v>531</v>
       </c>
       <c r="C799" s="2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D799" t="s">
         <v>14</v>
@@ -34704,25 +34740,25 @@
         <v>1</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G799" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="H799" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="J799" t="s">
-        <v>1252</v>
+        <v>1232</v>
       </c>
       <c r="K799" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="L799" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="800" spans="1:12">
@@ -34733,7 +34769,7 @@
         <v>531</v>
       </c>
       <c r="C800" s="2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D800" t="s">
         <v>14</v>
@@ -34742,25 +34778,25 @@
         <v>2</v>
       </c>
       <c r="F800" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="G800" t="s">
         <v>1236</v>
       </c>
       <c r="H800" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I800" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J800" t="s">
         <v>1237</v>
       </c>
-      <c r="I800" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J800" t="s">
-        <v>1238</v>
-      </c>
       <c r="K800" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="L800" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -34771,7 +34807,7 @@
         <v>531</v>
       </c>
       <c r="C801" s="2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D801" t="s">
         <v>14</v>
@@ -34780,25 +34816,25 @@
         <v>3</v>
       </c>
       <c r="F801" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="G801" t="s">
-        <v>1255</v>
+        <v>1233</v>
       </c>
       <c r="H801" s="1" t="s">
-        <v>1256</v>
+        <v>1234</v>
       </c>
       <c r="I801" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J801" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="K801" t="s">
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="L801" t="s">
-        <v>65</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="802" spans="1:12">
@@ -34809,7 +34845,7 @@
         <v>531</v>
       </c>
       <c r="C802" s="2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D802" t="s">
         <v>14</v>
@@ -34818,25 +34854,25 @@
         <v>4</v>
       </c>
       <c r="F802" s="2" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="G802" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="H802" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="I802" s="1" t="s">
         <v>456</v>
       </c>
       <c r="J802" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="K802" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L802" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="803" spans="1:12">
@@ -34847,34 +34883,34 @@
         <v>531</v>
       </c>
       <c r="C803" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D803" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E803" s="2">
         <v>1</v>
       </c>
-      <c r="F803" s="2">
-        <v>34.28</v>
+      <c r="F803" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="G803" t="s">
-        <v>1231</v>
+        <v>1253</v>
       </c>
       <c r="H803" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="J803" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="K803" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L803" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -34885,34 +34921,34 @@
         <v>531</v>
       </c>
       <c r="C804" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D804" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E804" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F804" s="2" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="G804" t="s">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="H804" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>456</v>
+        <v>62</v>
       </c>
       <c r="J804" t="s">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="K804" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L804" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="805" spans="1:12">
@@ -34923,34 +34959,34 @@
         <v>531</v>
       </c>
       <c r="C805" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D805" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E805" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F805" s="2" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="G805" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H805" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="H805" s="1" t="s">
-        <v>1229</v>
-      </c>
       <c r="I805" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J805" t="s">
         <v>1242</v>
       </c>
-      <c r="J805" t="s">
-        <v>1243</v>
-      </c>
       <c r="K805" t="s">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="L805" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -34961,34 +34997,34 @@
         <v>531</v>
       </c>
       <c r="C806" s="2">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D806" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E806" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="G806" t="s">
-        <v>1231</v>
+        <v>1260</v>
       </c>
       <c r="H806" s="1" t="s">
-        <v>1232</v>
+        <v>1261</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>489</v>
+        <v>62</v>
       </c>
       <c r="J806" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="K806" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="L806" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="807" spans="1:12">
@@ -34999,34 +35035,34 @@
         <v>531</v>
       </c>
       <c r="C807" s="2">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="D807" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E807" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F807" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H807" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I807" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J807" t="s">
         <v>1265</v>
       </c>
-      <c r="G807" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H807" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I807" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J807" t="s">
-        <v>1261</v>
-      </c>
       <c r="K807" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="L807" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -35037,34 +35073,34 @@
         <v>531</v>
       </c>
       <c r="C808" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D808" t="s">
         <v>38</v>
       </c>
       <c r="E808" s="2">
-        <v>2</v>
-      </c>
-      <c r="F808" s="2" t="s">
-        <v>596</v>
+        <v>1</v>
+      </c>
+      <c r="F808" s="2">
+        <v>34.28</v>
       </c>
       <c r="G808" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="H808" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="J808" t="s">
-        <v>1249</v>
+        <v>1266</v>
       </c>
       <c r="K808" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L808" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="809" spans="1:12">
@@ -35078,25 +35114,25 @@
         <v>50</v>
       </c>
       <c r="D809" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E809" s="2">
-        <v>1</v>
-      </c>
-      <c r="F809" s="2">
-        <v>38.99</v>
+        <v>2</v>
+      </c>
+      <c r="F809" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="G809" t="s">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="H809" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="J809" t="s">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="K809" t="s">
         <v>19</v>
@@ -35116,31 +35152,31 @@
         <v>50</v>
       </c>
       <c r="D810" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E810" s="2">
-        <v>1</v>
-      </c>
-      <c r="F810" s="2">
-        <v>31.13</v>
+        <v>3</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>1268</v>
       </c>
       <c r="G810" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="H810" s="1" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>123</v>
+        <v>1246</v>
       </c>
       <c r="J810" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="K810" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L810" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -35151,28 +35187,28 @@
         <v>531</v>
       </c>
       <c r="C811" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D811" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E811" s="2">
-        <v>2</v>
-      </c>
-      <c r="F811" s="2">
-        <v>33.17</v>
+        <v>1</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>1269</v>
       </c>
       <c r="G811" t="s">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="H811" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I811" s="1" t="s">
         <v>489</v>
       </c>
       <c r="J811" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="K811" t="s">
         <v>25</v>
@@ -35189,31 +35225,31 @@
         <v>531</v>
       </c>
       <c r="C812" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D812" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E812" s="2">
         <v>1</v>
       </c>
       <c r="F812" s="2" t="s">
-        <v>754</v>
+        <v>1270</v>
       </c>
       <c r="G812" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="H812" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I812" s="1" t="s">
-        <v>123</v>
+        <v>489</v>
       </c>
       <c r="J812" t="s">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="K812" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L812" t="s">
         <v>26</v>
@@ -35227,34 +35263,34 @@
         <v>531</v>
       </c>
       <c r="C813" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D813" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E813" s="2">
         <v>2</v>
       </c>
       <c r="F813" s="2" t="s">
-        <v>1266</v>
+        <v>596</v>
       </c>
       <c r="G813" t="s">
-        <v>1231</v>
+        <v>1253</v>
       </c>
       <c r="H813" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I813" s="1" t="s">
-        <v>489</v>
+        <v>147</v>
       </c>
       <c r="J813" t="s">
-        <v>1233</v>
+        <v>1254</v>
       </c>
       <c r="K813" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="L813" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -35265,34 +35301,34 @@
         <v>531</v>
       </c>
       <c r="C814" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D814" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E814" s="2">
-        <v>3</v>
-      </c>
-      <c r="F814" s="2" t="s">
-        <v>1267</v>
+        <v>1</v>
+      </c>
+      <c r="F814" s="2">
+        <v>38.99</v>
       </c>
       <c r="G814" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="H814" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>1147</v>
+        <v>489</v>
       </c>
       <c r="J814" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="K814" t="s">
-        <v>536</v>
+        <v>19</v>
       </c>
       <c r="L814" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -35303,7 +35339,7 @@
         <v>531</v>
       </c>
       <c r="C815" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D815" t="s">
         <v>47</v>
@@ -35311,26 +35347,26 @@
       <c r="E815" s="2">
         <v>1</v>
       </c>
-      <c r="F815" s="2" t="s">
-        <v>1268</v>
+      <c r="F815" s="2">
+        <v>31.13</v>
       </c>
       <c r="G815" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="H815" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I815" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J815" t="s">
         <v>1232</v>
       </c>
-      <c r="I815" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J815" t="s">
-        <v>1249</v>
-      </c>
       <c r="K815" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L815" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="816" spans="1:12">
@@ -35341,31 +35377,31 @@
         <v>531</v>
       </c>
       <c r="C816" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D816" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E816" s="2">
-        <v>1</v>
-      </c>
-      <c r="F816" s="2" t="s">
-        <v>1269</v>
+        <v>2</v>
+      </c>
+      <c r="F816" s="2">
+        <v>33.17</v>
       </c>
       <c r="G816" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="H816" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>123</v>
+        <v>489</v>
       </c>
       <c r="J816" t="s">
-        <v>1230</v>
+        <v>1266</v>
       </c>
       <c r="K816" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L816" t="s">
         <v>26</v>
@@ -35379,34 +35415,34 @@
         <v>531</v>
       </c>
       <c r="C817" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D817" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E817" s="2">
-        <v>2</v>
-      </c>
-      <c r="F817" s="2" t="s">
-        <v>1270</v>
+        <v>3</v>
+      </c>
+      <c r="F817" s="2">
+        <v>35.55</v>
       </c>
       <c r="G817" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="H817" s="1" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>489</v>
+        <v>62</v>
       </c>
       <c r="J817" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="K817" t="s">
-        <v>19</v>
+        <v>1064</v>
       </c>
       <c r="L817" t="s">
-        <v>20</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="818" spans="1:12">
@@ -35417,34 +35453,34 @@
         <v>531</v>
       </c>
       <c r="C818" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D818" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E818" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F818" s="2" t="s">
         <v>1271</v>
       </c>
       <c r="G818" t="s">
-        <v>1239</v>
+        <v>1272</v>
       </c>
       <c r="H818" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>456</v>
+        <v>1273</v>
       </c>
       <c r="J818" t="s">
-        <v>1240</v>
+        <v>1274</v>
       </c>
       <c r="K818" t="s">
-        <v>19</v>
+        <v>1275</v>
       </c>
       <c r="L818" t="s">
-        <v>20</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="819" spans="1:12">
@@ -35455,31 +35491,31 @@
         <v>531</v>
       </c>
       <c r="C819" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D819" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E819" s="2">
         <v>1</v>
       </c>
       <c r="F819" s="2" t="s">
-        <v>1272</v>
+        <v>754</v>
       </c>
       <c r="G819" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H819" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="H819" s="1" t="s">
+      <c r="I819" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J819" t="s">
         <v>1232</v>
       </c>
-      <c r="I819" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J819" t="s">
-        <v>1261</v>
-      </c>
       <c r="K819" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L819" t="s">
         <v>26</v>
@@ -35493,34 +35529,34 @@
         <v>531</v>
       </c>
       <c r="C820" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D820" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E820" s="2">
         <v>2</v>
       </c>
       <c r="F820" s="2" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="G820" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="H820" s="1" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>123</v>
+        <v>489</v>
       </c>
       <c r="J820" t="s">
-        <v>1274</v>
+        <v>1237</v>
       </c>
       <c r="K820" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="L820" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="821" spans="1:12">
@@ -35531,34 +35567,34 @@
         <v>531</v>
       </c>
       <c r="C821" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D821" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E821" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F821" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="G821" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="H821" s="1" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>489</v>
+        <v>1149</v>
       </c>
       <c r="J821" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="K821" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="L821" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="822" spans="1:12">
@@ -35569,34 +35605,34 @@
         <v>531</v>
       </c>
       <c r="C822" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D822" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E822" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="G822" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
       <c r="H822" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I822" s="1" t="s">
-        <v>1147</v>
+        <v>147</v>
       </c>
       <c r="J822" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="K822" t="s">
-        <v>536</v>
+        <v>19</v>
       </c>
       <c r="L822" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="823" spans="1:12">
@@ -35604,37 +35640,37 @@
         <v>630</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C823" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D823" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E823" s="2">
         <v>1</v>
       </c>
-      <c r="F823" s="2">
-        <v>45.82</v>
+      <c r="F823" s="2" t="s">
+        <v>1280</v>
       </c>
       <c r="G823" t="s">
-        <v>1277</v>
+        <v>1230</v>
       </c>
       <c r="H823" s="1" t="s">
-        <v>1278</v>
+        <v>1231</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="J823" t="s">
-        <v>1279</v>
+        <v>1232</v>
       </c>
       <c r="K823" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L823" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="824" spans="1:12">
@@ -35642,31 +35678,31 @@
         <v>630</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C824" s="2">
         <v>100</v>
       </c>
       <c r="D824" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E824" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F824" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G824" t="s">
-        <v>1277</v>
+        <v>1236</v>
       </c>
       <c r="H824" s="1" t="s">
-        <v>1278</v>
+        <v>1234</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>109</v>
+        <v>489</v>
       </c>
       <c r="J824" t="s">
-        <v>1279</v>
+        <v>1237</v>
       </c>
       <c r="K824" t="s">
         <v>19</v>
@@ -35680,37 +35716,37 @@
         <v>630</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C825" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D825" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E825" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F825" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G825" t="s">
-        <v>1282</v>
+        <v>1233</v>
       </c>
       <c r="H825" s="1" t="s">
-        <v>1283</v>
+        <v>1234</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="J825" t="s">
-        <v>1284</v>
+        <v>1235</v>
       </c>
       <c r="K825" t="s">
-        <v>553</v>
+        <v>1064</v>
       </c>
       <c r="L825" t="s">
-        <v>537</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="826" spans="1:12">
@@ -35718,37 +35754,37 @@
         <v>630</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C826" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D826" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E826" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F826" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G826" t="s">
-        <v>1282</v>
+        <v>1243</v>
       </c>
       <c r="H826" s="1" t="s">
-        <v>1283</v>
+        <v>1231</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="J826" t="s">
-        <v>1284</v>
+        <v>1244</v>
       </c>
       <c r="K826" t="s">
-        <v>536</v>
+        <v>19</v>
       </c>
       <c r="L826" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="827" spans="1:12">
@@ -35756,37 +35792,37 @@
         <v>630</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C827" s="2">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D827" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E827" s="2">
         <v>1</v>
       </c>
       <c r="F827" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G827" t="s">
-        <v>1282</v>
+        <v>1236</v>
       </c>
       <c r="H827" s="1" t="s">
-        <v>1283</v>
+        <v>1234</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="J827" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
       <c r="K827" t="s">
-        <v>553</v>
+        <v>37</v>
       </c>
       <c r="L827" t="s">
-        <v>537</v>
+        <v>26</v>
       </c>
     </row>
     <row r="828" spans="1:12">
@@ -35794,37 +35830,37 @@
         <v>630</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C828" s="2">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D828" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E828" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G828" t="s">
-        <v>1282</v>
+        <v>1230</v>
       </c>
       <c r="H828" s="1" t="s">
-        <v>1283</v>
+        <v>1231</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J828" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="K828" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="L828" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="829" spans="1:12">
@@ -35832,37 +35868,37 @@
         <v>630</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C829" s="2">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D829" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E829" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G829" t="s">
-        <v>1289</v>
+        <v>1238</v>
       </c>
       <c r="H829" s="1" t="s">
-        <v>1290</v>
+        <v>1231</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>1291</v>
+        <v>489</v>
       </c>
       <c r="J829" t="s">
-        <v>1292</v>
+        <v>1239</v>
       </c>
       <c r="K829" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="L829" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="830" spans="1:12">
@@ -35870,37 +35906,37 @@
         <v>630</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C830" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D830" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E830" s="2">
-        <v>1</v>
-      </c>
-      <c r="F830" s="2">
-        <v>56.44</v>
+        <v>2</v>
+      </c>
+      <c r="F830" s="2" t="s">
+        <v>1288</v>
       </c>
       <c r="G830" t="s">
-        <v>1277</v>
+        <v>1240</v>
       </c>
       <c r="H830" s="1" t="s">
-        <v>1278</v>
+        <v>1241</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>109</v>
+        <v>1149</v>
       </c>
       <c r="J830" t="s">
-        <v>1279</v>
+        <v>1242</v>
       </c>
       <c r="K830" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="L830" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="831" spans="1:12">
@@ -35911,28 +35947,28 @@
         <v>562</v>
       </c>
       <c r="C831" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D831" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E831" s="2">
         <v>1</v>
       </c>
-      <c r="F831" s="2" t="s">
-        <v>1293</v>
+      <c r="F831" s="2">
+        <v>45.82</v>
       </c>
       <c r="G831" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
       <c r="H831" s="1" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="I831" s="1" t="s">
         <v>109</v>
       </c>
       <c r="J831" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="K831" t="s">
         <v>19</v>
@@ -35949,34 +35985,34 @@
         <v>562</v>
       </c>
       <c r="C832" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D832" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E832" s="2">
         <v>1</v>
       </c>
-      <c r="F832" s="2">
-        <v>49.02</v>
+      <c r="F832" s="2" t="s">
+        <v>1292</v>
       </c>
       <c r="G832" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="H832" s="1" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="J832" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="K832" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="L832" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="833" spans="1:12">
@@ -35987,31 +36023,31 @@
         <v>562</v>
       </c>
       <c r="C833" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D833" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E833" s="2">
         <v>1</v>
       </c>
       <c r="F833" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G833" t="s">
         <v>1294</v>
       </c>
-      <c r="G833" t="s">
-        <v>1282</v>
-      </c>
       <c r="H833" s="1" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="I833" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J833" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="K833" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="L833" t="s">
         <v>537</v>
@@ -36025,31 +36061,31 @@
         <v>562</v>
       </c>
       <c r="C834" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D834" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E834" s="2">
         <v>1</v>
       </c>
       <c r="F834" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G834" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H834" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="G834" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H834" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="I834" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J834" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="K834" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="L834" t="s">
         <v>537</v>
@@ -36063,31 +36099,31 @@
         <v>562</v>
       </c>
       <c r="C835" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D835" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E835" s="2">
         <v>1</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G835" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="H835" s="1" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="I835" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J835" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="K835" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="L835" t="s">
         <v>537</v>
@@ -36098,10 +36134,10 @@
         <v>630</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C836" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D836" t="s">
         <v>14</v>
@@ -36109,26 +36145,26 @@
       <c r="E836" s="2">
         <v>1</v>
       </c>
-      <c r="F836" s="2">
-        <v>43.59</v>
+      <c r="F836" s="2" t="s">
+        <v>1299</v>
       </c>
       <c r="G836" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H836" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I836" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J836" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K836" t="s">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="L836" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="837" spans="1:12">
@@ -36136,10 +36172,10 @@
         <v>630</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C837" s="2">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D837" t="s">
         <v>14</v>
@@ -36147,26 +36183,26 @@
       <c r="E837" s="2">
         <v>2</v>
       </c>
-      <c r="F837" s="2">
-        <v>49.82</v>
+      <c r="F837" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="G837" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H837" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="J837" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="K837" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L837" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="838" spans="1:12">
@@ -36174,37 +36210,37 @@
         <v>630</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C838" s="2">
         <v>50</v>
       </c>
       <c r="D838" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E838" s="2">
-        <v>3</v>
-      </c>
-      <c r="F838" s="2" t="s">
-        <v>1304</v>
+        <v>1</v>
+      </c>
+      <c r="F838" s="2">
+        <v>56.44</v>
       </c>
       <c r="G838" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="H838" s="1" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J838" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="K838" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="L838" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="839" spans="1:12">
@@ -36212,37 +36248,37 @@
         <v>630</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C839" s="2">
         <v>200</v>
       </c>
       <c r="D839" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E839" s="2">
         <v>1</v>
       </c>
       <c r="F839" s="2" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="G839" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="H839" s="1" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J839" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="K839" t="s">
-        <v>553</v>
+        <v>19</v>
       </c>
       <c r="L839" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="840" spans="1:12">
@@ -36250,34 +36286,34 @@
         <v>630</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C840" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D840" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E840" s="2">
         <v>1</v>
       </c>
-      <c r="F840" s="2" t="s">
-        <v>1309</v>
+      <c r="F840" s="2">
+        <v>49.02</v>
       </c>
       <c r="G840" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="H840" s="1" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J840" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="K840" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="L840" t="s">
         <v>537</v>
@@ -36288,37 +36324,37 @@
         <v>630</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C841" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D841" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E841" s="2">
         <v>1</v>
       </c>
-      <c r="F841" s="2">
-        <v>57.37</v>
+      <c r="F841" s="2" t="s">
+        <v>1306</v>
       </c>
       <c r="G841" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H841" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I841" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J841" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K841" t="s">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="L841" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="842" spans="1:12">
@@ -36326,37 +36362,37 @@
         <v>630</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C842" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D842" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E842" s="2">
         <v>1</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="G842" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="H842" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I842" s="1" t="s">
         <v>147</v>
       </c>
       <c r="J842" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K842" t="s">
-        <v>19</v>
+        <v>553</v>
       </c>
       <c r="L842" t="s">
-        <v>20</v>
+        <v>537</v>
       </c>
     </row>
     <row r="843" spans="1:12">
@@ -36364,34 +36400,34 @@
         <v>630</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C843" s="2">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="D843" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E843" s="2">
         <v>1</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="G843" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="H843" s="1" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J843" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="K843" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="L843" t="s">
         <v>537</v>
@@ -36408,31 +36444,31 @@
         <v>50</v>
       </c>
       <c r="D844" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E844" s="2">
         <v>1</v>
       </c>
-      <c r="F844" s="2" t="s">
-        <v>1312</v>
+      <c r="F844" s="2">
+        <v>43.59</v>
       </c>
       <c r="G844" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="H844" s="1" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="I844" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="J844" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="K844" t="s">
-        <v>553</v>
+        <v>19</v>
       </c>
       <c r="L844" t="s">
-        <v>537</v>
+        <v>20</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -36443,28 +36479,28 @@
         <v>604</v>
       </c>
       <c r="C845" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D845" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E845" s="2">
-        <v>1</v>
-      </c>
-      <c r="F845" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F845" s="2">
+        <v>49.82</v>
+      </c>
+      <c r="G845" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H845" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="G845" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H845" s="1" t="s">
-        <v>1298</v>
-      </c>
       <c r="I845" s="1" t="s">
-        <v>147</v>
+        <v>1314</v>
       </c>
       <c r="J845" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="K845" t="s">
         <v>19</v>
@@ -36481,31 +36517,31 @@
         <v>604</v>
       </c>
       <c r="C846" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D846" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E846" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G846" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="H846" s="1" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="I846" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J846" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="K846" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="L846" t="s">
         <v>537</v>
@@ -36522,28 +36558,28 @@
         <v>200</v>
       </c>
       <c r="D847" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E847" s="2">
         <v>1</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="G847" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="H847" s="1" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="I847" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J847" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="K847" t="s">
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="L847" t="s">
         <v>537</v>
@@ -36560,25 +36596,25 @@
         <v>400</v>
       </c>
       <c r="D848" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E848" s="2">
         <v>1</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="G848" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="H848" s="1" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="I848" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J848" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="K848" t="s">
         <v>536</v>
@@ -36592,31 +36628,31 @@
         <v>630</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>1317</v>
+        <v>604</v>
       </c>
       <c r="C849" s="2">
         <v>50</v>
       </c>
       <c r="D849" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E849" s="2">
         <v>1</v>
       </c>
-      <c r="F849" s="2" t="s">
-        <v>1318</v>
+      <c r="F849" s="2">
+        <v>57.37</v>
       </c>
       <c r="G849" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="H849" s="1" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="I849" s="1" t="s">
-        <v>702</v>
+        <v>147</v>
       </c>
       <c r="J849" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="K849" t="s">
         <v>19</v>
@@ -36630,13 +36666,13 @@
         <v>630</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1317</v>
+        <v>604</v>
       </c>
       <c r="C850" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D850" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E850" s="2">
         <v>1</v>
@@ -36645,21 +36681,325 @@
         <v>1322</v>
       </c>
       <c r="G850" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H850" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I850" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J850" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K850" t="s">
+        <v>19</v>
+      </c>
+      <c r="L850" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12">
+      <c r="A851" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C851" s="2">
+        <v>50</v>
+      </c>
+      <c r="D851" t="s">
+        <v>43</v>
+      </c>
+      <c r="E851" s="2">
+        <v>1</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G851" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H851" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I851" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J851" t="s">
         <v>1319</v>
       </c>
-      <c r="H850" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I850" s="1" t="s">
+      <c r="K851" t="s">
+        <v>463</v>
+      </c>
+      <c r="L851" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12">
+      <c r="A852" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C852" s="2">
+        <v>50</v>
+      </c>
+      <c r="D852" t="s">
+        <v>47</v>
+      </c>
+      <c r="E852" s="2">
+        <v>1</v>
+      </c>
+      <c r="F852" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G852" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I852" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J852" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K852" t="s">
+        <v>553</v>
+      </c>
+      <c r="L852" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12">
+      <c r="A853" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C853" s="2">
+        <v>100</v>
+      </c>
+      <c r="D853" t="s">
+        <v>50</v>
+      </c>
+      <c r="E853" s="2">
+        <v>1</v>
+      </c>
+      <c r="F853" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G853" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I853" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J853" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K853" t="s">
+        <v>19</v>
+      </c>
+      <c r="L853" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12">
+      <c r="A854" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C854" s="2">
+        <v>100</v>
+      </c>
+      <c r="D854" t="s">
+        <v>50</v>
+      </c>
+      <c r="E854" s="2">
+        <v>2</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G854" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H854" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I854" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J854" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K854" t="s">
+        <v>553</v>
+      </c>
+      <c r="L854" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12">
+      <c r="A855" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C855" s="2">
+        <v>200</v>
+      </c>
+      <c r="D855" t="s">
+        <v>50</v>
+      </c>
+      <c r="E855" s="2">
+        <v>1</v>
+      </c>
+      <c r="F855" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G855" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H855" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I855" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J855" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K855" t="s">
+        <v>463</v>
+      </c>
+      <c r="L855" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12">
+      <c r="A856" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C856" s="2">
+        <v>400</v>
+      </c>
+      <c r="D856" t="s">
+        <v>50</v>
+      </c>
+      <c r="E856" s="2">
+        <v>1</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G856" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H856" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I856" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J856" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K856" t="s">
+        <v>536</v>
+      </c>
+      <c r="L856" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12">
+      <c r="A857" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C857" s="2">
+        <v>50</v>
+      </c>
+      <c r="D857" t="s">
+        <v>14</v>
+      </c>
+      <c r="E857" s="2">
+        <v>1</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G857" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H857" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I857" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J850" t="s">
-        <v>1321</v>
-      </c>
-      <c r="K850" t="s">
-        <v>19</v>
-      </c>
-      <c r="L850" t="s">
+      <c r="J857" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K857" t="s">
+        <v>19</v>
+      </c>
+      <c r="L857" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12">
+      <c r="A858" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C858" s="2">
+        <v>50</v>
+      </c>
+      <c r="D858" t="s">
+        <v>43</v>
+      </c>
+      <c r="E858" s="2">
+        <v>1</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G858" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H858" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I858" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J858" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K858" t="s">
+        <v>19</v>
+      </c>
+      <c r="L858" t="s">
         <v>20</v>
       </c>
     </row>

--- a/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
+++ b/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
@@ -25629,7 +25629,7 @@
         <v>844</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="J559" t="s">
         <v>917</v>

--- a/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
+++ b/SeasonData/Season-2017/SourceData-2017/PACTop10SCM-2017.xlsx
@@ -539,7 +539,7 @@
     <t>8:55.95</t>
   </si>
   <si>
-    <t>15:08.85</t>
+    <t>13:40.61</t>
   </si>
   <si>
     <t xml:space="preserve"> Rebecca Cannata Kuhn</t>
